--- a/Financial_Model_Template_v2.xlsx
+++ b/Financial_Model_Template_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francis/PycharmProjects/VerticalFarming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75255FA6-B36E-BF46-90E5-285C4E2A225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5904BB-B3AA-F544-ACC6-7AB013319E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30340" windowHeight="18520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5180,7 +5180,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5214,12 +5214,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5353,12 +5347,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
     <fill>
@@ -5573,7 +5561,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5642,14 +5630,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -5657,10 +5645,10 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5677,10 +5665,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5693,10 +5681,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5707,14 +5695,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -5728,57 +5716,57 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="54" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="0" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="15" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="17" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="27" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="15" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="17" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="27" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="17" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="17" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5792,17 +5780,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="17" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="17" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="17" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="29" fillId="13" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="29" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5813,49 +5801,49 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="17" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="17" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="39" fontId="32" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="17" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="39" fontId="32" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="15" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="15" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5866,8 +5854,8 @@
     <xf numFmtId="17" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5875,7 +5863,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -5921,7 +5909,7 @@
     <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5952,26 +5940,26 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="17" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="17" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="19" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="17" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="17" fillId="19" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="18" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="17" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="17" fillId="18" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5979,11 +5967,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="17" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="17" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5994,19 +5982,127 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="17" fillId="17" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="17" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="17" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="48" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="48" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="17" fillId="23" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="17" fillId="22" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="48" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="29" fillId="29" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="15" fillId="29" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="29" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="30" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="15" fillId="31" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="31" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="29" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="29" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="29" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="29" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="29" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="29" fillId="29" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="29" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="27" fillId="29" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="29" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="17" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="15" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="27" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="17" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="17" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="17" fillId="29" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="17" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="29" fillId="29" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="17" fillId="29" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6046,20 +6142,11 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6069,107 +6156,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="31" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="15" fillId="31" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="32" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="31" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="32" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="15" fillId="33" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="33" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="31" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="0" fillId="31" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="31" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="31" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="29" fillId="31" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="29" fillId="31" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="31" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="27" fillId="31" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="31" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="17" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="15" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="27" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="17" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="17" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="17" fillId="31" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="17" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="29" fillId="31" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="17" fillId="31" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -45503,7 +45489,7 @@
   <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -45522,26 +45508,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="373" t="s">
         <v>841</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
     </row>
     <row r="2" spans="1:22" ht="36" customHeight="1">
-      <c r="A2" s="340"/>
-      <c r="B2" s="340"/>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
+      <c r="A2" s="374"/>
+      <c r="B2" s="374"/>
+      <c r="C2" s="374"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="374"/>
+      <c r="F2" s="374"/>
+      <c r="G2" s="374"/>
+      <c r="H2" s="374"/>
     </row>
     <row r="3" spans="1:22" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="55" t="s">
@@ -45549,28 +45535,28 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="13">
-      <c r="A4" s="341" t="s">
+      <c r="A4" s="375" t="s">
         <v>835</v>
       </c>
-      <c r="B4" s="340"/>
-      <c r="C4" s="340"/>
-      <c r="D4" s="340"/>
-      <c r="E4" s="340"/>
-      <c r="F4" s="340"/>
-      <c r="G4" s="340"/>
-      <c r="H4" s="340"/>
+      <c r="B4" s="374"/>
+      <c r="C4" s="374"/>
+      <c r="D4" s="374"/>
+      <c r="E4" s="374"/>
+      <c r="F4" s="374"/>
+      <c r="G4" s="374"/>
+      <c r="H4" s="374"/>
     </row>
     <row r="5" spans="1:22" ht="13">
-      <c r="A5" s="342" t="s">
+      <c r="A5" s="391" t="s">
         <v>843</v>
       </c>
-      <c r="B5" s="343"/>
-      <c r="C5" s="343"/>
-      <c r="D5" s="343"/>
-      <c r="E5" s="343"/>
-      <c r="F5" s="343"/>
-      <c r="G5" s="343"/>
-      <c r="H5" s="343"/>
+      <c r="B5" s="392"/>
+      <c r="C5" s="392"/>
+      <c r="D5" s="392"/>
+      <c r="E5" s="392"/>
+      <c r="F5" s="392"/>
+      <c r="G5" s="392"/>
+      <c r="H5" s="392"/>
     </row>
     <row r="6" spans="1:22" s="25" customFormat="1" ht="13">
       <c r="A6" s="87" t="s">
@@ -45585,16 +45571,16 @@
       <c r="H6" s="88"/>
     </row>
     <row r="7" spans="1:22" ht="13">
-      <c r="A7" s="344" t="s">
+      <c r="A7" s="376" t="s">
         <v>840</v>
       </c>
-      <c r="B7" s="340"/>
-      <c r="C7" s="340"/>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="340"/>
-      <c r="G7" s="340"/>
-      <c r="H7" s="340"/>
+      <c r="B7" s="374"/>
+      <c r="C7" s="374"/>
+      <c r="D7" s="374"/>
+      <c r="E7" s="374"/>
+      <c r="F7" s="374"/>
+      <c r="G7" s="374"/>
+      <c r="H7" s="374"/>
     </row>
     <row r="8" spans="1:22" s="25" customFormat="1" ht="13">
       <c r="A8" s="81" t="s">
@@ -45615,7 +45601,7 @@
       <c r="A10" s="270" t="s">
         <v>806</v>
       </c>
-      <c r="B10" s="349">
+      <c r="B10" s="325">
         <v>44228</v>
       </c>
       <c r="C10" s="52"/>
@@ -45629,7 +45615,7 @@
       <c r="A11" s="270" t="s">
         <v>838</v>
       </c>
-      <c r="B11" s="349" t="s">
+      <c r="B11" s="325" t="s">
         <v>837</v>
       </c>
       <c r="C11" s="52"/>
@@ -45648,8 +45634,8 @@
       <c r="Q12" s="188"/>
       <c r="R12" s="189"/>
       <c r="S12" s="189"/>
-      <c r="T12" s="338"/>
-      <c r="U12" s="338"/>
+      <c r="T12" s="372"/>
+      <c r="U12" s="372"/>
     </row>
     <row r="13" spans="1:22" ht="16">
       <c r="A13" s="2" t="s">
@@ -45695,7 +45681,7 @@
       <c r="A14" s="148" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="350">
+      <c r="B14" s="326">
         <v>220</v>
       </c>
       <c r="C14" s="288">
@@ -45708,16 +45694,16 @@
       <c r="G14" s="248" t="s">
         <v>586</v>
       </c>
-      <c r="H14" s="358" t="s">
+      <c r="H14" s="334" t="s">
         <v>384</v>
       </c>
-      <c r="I14" s="359" t="s">
+      <c r="I14" s="335" t="s">
         <v>529</v>
       </c>
-      <c r="J14" s="359" t="s">
+      <c r="J14" s="335" t="s">
         <v>450</v>
       </c>
-      <c r="K14" s="359" t="s">
+      <c r="K14" s="335" t="s">
         <v>305</v>
       </c>
       <c r="L14" s="43" t="s">
@@ -45738,7 +45724,7 @@
       <c r="A15" s="148" t="s">
         <v>433</v>
       </c>
-      <c r="B15" s="351">
+      <c r="B15" s="327">
         <v>0.27</v>
       </c>
       <c r="C15" s="289"/>
@@ -45748,16 +45734,16 @@
       <c r="G15" s="249" t="s">
         <v>310</v>
       </c>
-      <c r="H15" s="360">
+      <c r="H15" s="336">
         <v>0.875</v>
       </c>
-      <c r="I15" s="361">
+      <c r="I15" s="337">
         <v>6.25E-2</v>
       </c>
-      <c r="J15" s="361">
+      <c r="J15" s="337">
         <v>6.25E-2</v>
       </c>
-      <c r="K15" s="360">
+      <c r="K15" s="336">
         <v>0</v>
       </c>
       <c r="L15" s="110">
@@ -45795,16 +45781,16 @@
       <c r="G16" s="248" t="s">
         <v>304</v>
       </c>
-      <c r="H16" s="359" t="s">
+      <c r="H16" s="335" t="s">
         <v>442</v>
       </c>
-      <c r="I16" s="359" t="s">
+      <c r="I16" s="335" t="s">
         <v>472</v>
       </c>
-      <c r="J16" s="359" t="s">
+      <c r="J16" s="335" t="s">
         <v>472</v>
       </c>
-      <c r="K16" s="359" t="s">
+      <c r="K16" s="335" t="s">
         <v>442</v>
       </c>
       <c r="L16" s="51" t="s">
@@ -45825,7 +45811,7 @@
       <c r="A17" s="302" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="352">
+      <c r="B17" s="328">
         <v>4</v>
       </c>
       <c r="C17" s="290">
@@ -45834,7 +45820,7 @@
       </c>
       <c r="D17" s="299"/>
       <c r="E17" s="300"/>
-      <c r="F17" s="328" t="s">
+      <c r="F17" s="380" t="s">
         <v>588</v>
       </c>
       <c r="G17" s="248" t="s">
@@ -45875,7 +45861,7 @@
       <c r="A18" s="301" t="s">
         <v>299</v>
       </c>
-      <c r="B18" s="352">
+      <c r="B18" s="328">
         <f>B17*B16</f>
         <v>237.60000000000002</v>
       </c>
@@ -45885,7 +45871,7 @@
       </c>
       <c r="D18" s="299"/>
       <c r="E18" s="300"/>
-      <c r="F18" s="328"/>
+      <c r="F18" s="380"/>
       <c r="G18" s="228" t="s">
         <v>556</v>
       </c>
@@ -45920,7 +45906,7 @@
       <c r="A19" s="148" t="s">
         <v>562</v>
       </c>
-      <c r="B19" s="353" t="s">
+      <c r="B19" s="329" t="s">
         <v>563</v>
       </c>
       <c r="C19" s="292" t="s">
@@ -45934,16 +45920,16 @@
       <c r="G19" s="248" t="s">
         <v>557</v>
       </c>
-      <c r="H19" s="359">
+      <c r="H19" s="335">
         <v>0.1</v>
       </c>
-      <c r="I19" s="359">
+      <c r="I19" s="335">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="J19" s="359">
+      <c r="J19" s="335">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K19" s="359">
+      <c r="K19" s="335">
         <v>0.5</v>
       </c>
       <c r="L19" s="176"/>
@@ -45962,7 +45948,7 @@
       <c r="A20" s="286" t="s">
         <v>312</v>
       </c>
-      <c r="B20" s="354">
+      <c r="B20" s="330">
         <v>2</v>
       </c>
       <c r="C20" s="293"/>
@@ -45974,16 +45960,16 @@
       <c r="G20" s="250" t="s">
         <v>582</v>
       </c>
-      <c r="H20" s="359">
+      <c r="H20" s="335">
         <v>0.2</v>
       </c>
-      <c r="I20" s="359">
+      <c r="I20" s="335">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="J20" s="359">
+      <c r="J20" s="335">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K20" s="359">
+      <c r="K20" s="335">
         <v>0.5</v>
       </c>
       <c r="L20" s="217"/>
@@ -45992,7 +45978,7 @@
       <c r="A21" s="148" t="s">
         <v>471</v>
       </c>
-      <c r="B21" s="355">
+      <c r="B21" s="331">
         <v>128</v>
       </c>
       <c r="C21" s="294">
@@ -46007,16 +45993,16 @@
       <c r="G21" s="250" t="s">
         <v>569</v>
       </c>
-      <c r="H21" s="362">
+      <c r="H21" s="338">
         <v>1</v>
       </c>
-      <c r="I21" s="362">
+      <c r="I21" s="338">
         <v>1</v>
       </c>
-      <c r="J21" s="362">
+      <c r="J21" s="338">
         <v>1</v>
       </c>
-      <c r="K21" s="359">
+      <c r="K21" s="335">
         <v>0</v>
       </c>
     </row>
@@ -46024,7 +46010,7 @@
       <c r="A22" s="148" t="s">
         <v>845</v>
       </c>
-      <c r="B22" s="356">
+      <c r="B22" s="332">
         <v>2</v>
       </c>
       <c r="C22" s="295">
@@ -46032,22 +46018,22 @@
       </c>
       <c r="D22" s="299"/>
       <c r="E22" s="300"/>
-      <c r="F22" s="336" t="s">
+      <c r="F22" s="388" t="s">
         <v>309</v>
       </c>
       <c r="G22" s="251" t="s">
         <v>566</v>
       </c>
-      <c r="H22" s="363">
+      <c r="H22" s="339">
         <v>6</v>
       </c>
-      <c r="I22" s="363">
+      <c r="I22" s="339">
         <v>1.5</v>
       </c>
-      <c r="J22" s="363">
+      <c r="J22" s="339">
         <v>1.5</v>
       </c>
-      <c r="K22" s="363">
+      <c r="K22" s="339">
         <v>7.5</v>
       </c>
       <c r="L22" s="217"/>
@@ -46056,7 +46042,7 @@
       <c r="A23" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="357">
+      <c r="B23" s="333">
         <v>0.08</v>
       </c>
       <c r="C23" s="296">
@@ -46064,20 +46050,20 @@
       </c>
       <c r="D23" s="299"/>
       <c r="E23" s="300"/>
-      <c r="F23" s="336"/>
+      <c r="F23" s="388"/>
       <c r="G23" s="251" t="s">
         <v>567</v>
       </c>
-      <c r="H23" s="363">
-        <v>0</v>
-      </c>
-      <c r="I23" s="363">
-        <v>0</v>
-      </c>
-      <c r="J23" s="363">
-        <v>0</v>
-      </c>
-      <c r="K23" s="363">
+      <c r="H23" s="339">
+        <v>0</v>
+      </c>
+      <c r="I23" s="339">
+        <v>0</v>
+      </c>
+      <c r="J23" s="339">
+        <v>0</v>
+      </c>
+      <c r="K23" s="339">
         <v>7.5</v>
       </c>
       <c r="L23" s="217"/>
@@ -46096,7 +46082,7 @@
       </c>
       <c r="D24" s="299"/>
       <c r="E24" s="300"/>
-      <c r="F24" s="335" t="s">
+      <c r="F24" s="387" t="s">
         <v>515</v>
       </c>
       <c r="G24" s="248" t="s">
@@ -46137,7 +46123,7 @@
       </c>
       <c r="D25" s="299"/>
       <c r="E25" s="300"/>
-      <c r="F25" s="335"/>
+      <c r="F25" s="387"/>
       <c r="G25" s="248" t="s">
         <v>308</v>
       </c>
@@ -46166,7 +46152,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
-      <c r="F26" s="333" t="s">
+      <c r="F26" s="385" t="s">
         <v>559</v>
       </c>
       <c r="G26" s="158" t="s">
@@ -46199,7 +46185,7 @@
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="43"/>
-      <c r="F27" s="334"/>
+      <c r="F27" s="386"/>
       <c r="G27" s="158" t="s">
         <v>308</v>
       </c>
@@ -46228,11 +46214,11 @@
       <c r="A28" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="364" t="s">
+      <c r="B28" s="340" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="43"/>
-      <c r="F28" s="337" t="s">
+      <c r="F28" s="389" t="s">
         <v>558</v>
       </c>
       <c r="G28" s="158" t="s">
@@ -46263,11 +46249,11 @@
       <c r="A29" s="199" t="s">
         <v>216</v>
       </c>
-      <c r="B29" s="365" t="s">
+      <c r="B29" s="341" t="s">
         <v>810</v>
       </c>
       <c r="C29" s="147"/>
-      <c r="F29" s="334"/>
+      <c r="F29" s="386"/>
       <c r="G29" s="158" t="s">
         <v>461</v>
       </c>
@@ -46296,11 +46282,11 @@
       <c r="A30" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="366" t="s">
+      <c r="B30" s="342" t="s">
         <v>163</v>
       </c>
       <c r="C30" s="147"/>
-      <c r="F30" s="329" t="s">
+      <c r="F30" s="381" t="s">
         <v>504</v>
       </c>
       <c r="G30" s="182" t="s">
@@ -46328,11 +46314,11 @@
       <c r="A31" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="364" t="s">
+      <c r="B31" s="340" t="s">
         <v>162</v>
       </c>
       <c r="C31" s="147"/>
-      <c r="F31" s="330"/>
+      <c r="F31" s="382"/>
       <c r="G31" s="182" t="s">
         <v>308</v>
       </c>
@@ -46358,7 +46344,7 @@
       <c r="A32" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="367" t="s">
+      <c r="B32" s="343" t="s">
         <v>163</v>
       </c>
       <c r="C32" s="147"/>
@@ -46388,10 +46374,10 @@
       <c r="A33" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="367" t="s">
+      <c r="B33" s="343" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="327" t="s">
+      <c r="F33" s="379" t="s">
         <v>585</v>
       </c>
       <c r="G33" s="158" t="s">
@@ -46419,13 +46405,13 @@
       <c r="A34" s="207" t="s">
         <v>510</v>
       </c>
-      <c r="B34" s="367" t="s">
+      <c r="B34" s="343" t="s">
         <v>163</v>
       </c>
       <c r="C34" s="202" t="s">
         <v>467</v>
       </c>
-      <c r="F34" s="327"/>
+      <c r="F34" s="379"/>
       <c r="G34" s="158" t="s">
         <v>506</v>
       </c>
@@ -46451,13 +46437,13 @@
       <c r="A35" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="368" t="s">
+      <c r="B35" s="344" t="s">
         <v>224</v>
       </c>
-      <c r="C35" s="370">
+      <c r="C35" s="346">
         <v>8</v>
       </c>
-      <c r="F35" s="327"/>
+      <c r="F35" s="379"/>
       <c r="G35" s="158" t="s">
         <v>507</v>
       </c>
@@ -46483,14 +46469,14 @@
       <c r="A36" s="200" t="s">
         <v>313</v>
       </c>
-      <c r="B36" s="369" t="s">
+      <c r="B36" s="345" t="s">
         <v>373</v>
       </c>
       <c r="C36" s="195">
         <f>C35*16</f>
         <v>128</v>
       </c>
-      <c r="F36" s="327"/>
+      <c r="F36" s="379"/>
       <c r="G36" s="158" t="s">
         <v>508</v>
       </c>
@@ -46521,7 +46507,7 @@
         <f>C35*VLOOKUP(B35, Database!A77:I88, 5, FALSE)</f>
         <v>2880</v>
       </c>
-      <c r="F37" s="327"/>
+      <c r="F37" s="379"/>
       <c r="G37" s="158" t="s">
         <v>509</v>
       </c>
@@ -46547,11 +46533,11 @@
       <c r="A38" s="240" t="s">
         <v>528</v>
       </c>
-      <c r="B38" s="371" t="s">
+      <c r="B38" s="347" t="s">
         <v>486</v>
       </c>
       <c r="C38" s="147"/>
-      <c r="F38" s="331" t="s">
+      <c r="F38" s="383" t="s">
         <v>560</v>
       </c>
       <c r="G38" s="182" t="s">
@@ -46579,11 +46565,11 @@
       <c r="A39" s="200" t="s">
         <v>377</v>
       </c>
-      <c r="B39" s="369">
+      <c r="B39" s="345">
         <v>4</v>
       </c>
       <c r="C39" s="147"/>
-      <c r="F39" s="332"/>
+      <c r="F39" s="384"/>
       <c r="G39" s="182" t="s">
         <v>308</v>
       </c>
@@ -46612,12 +46598,12 @@
       <c r="A40" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="372" t="s">
+      <c r="B40" s="348" t="s">
         <v>161</v>
       </c>
       <c r="C40" s="147"/>
       <c r="D40" s="51"/>
-      <c r="F40" s="326" t="s">
+      <c r="F40" s="378" t="s">
         <v>583</v>
       </c>
       <c r="G40" s="228" t="s">
@@ -46644,11 +46630,11 @@
       <c r="A41" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="372" t="s">
+      <c r="B41" s="348" t="s">
         <v>164</v>
       </c>
       <c r="C41" s="147"/>
-      <c r="F41" s="326"/>
+      <c r="F41" s="378"/>
       <c r="G41" s="182" t="s">
         <v>584</v>
       </c>
@@ -46673,7 +46659,7 @@
       <c r="A42" s="148" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="373" t="s">
+      <c r="B42" s="349" t="s">
         <v>513</v>
       </c>
       <c r="C42" s="147"/>
@@ -46682,21 +46668,21 @@
       <c r="A43" s="148" t="s">
         <v>434</v>
       </c>
-      <c r="B43" s="374" t="s">
+      <c r="B43" s="350" t="s">
         <v>677</v>
       </c>
       <c r="C43" s="147"/>
-      <c r="G43" s="325" t="s">
+      <c r="G43" s="377" t="s">
         <v>573</v>
       </c>
-      <c r="H43" s="325"/>
-      <c r="I43" s="325"/>
+      <c r="H43" s="377"/>
+      <c r="I43" s="377"/>
     </row>
     <row r="44" spans="1:12" s="139" customFormat="1" ht="16">
       <c r="A44" s="148" t="s">
         <v>470</v>
       </c>
-      <c r="B44" s="375">
+      <c r="B44" s="351">
         <v>1.91E-3</v>
       </c>
       <c r="C44" s="147"/>
@@ -46724,7 +46710,7 @@
       <c r="A45" s="148" t="s">
         <v>469</v>
       </c>
-      <c r="B45" s="376">
+      <c r="B45" s="352">
         <v>0.06</v>
       </c>
       <c r="C45" s="147"/>
@@ -46742,7 +46728,7 @@
         <f>SUM(V67:V70)/growing_area_full</f>
         <v>63.318447282402055</v>
       </c>
-      <c r="J45" s="359">
+      <c r="J45" s="335">
         <v>90</v>
       </c>
       <c r="K45" s="156">
@@ -46775,7 +46761,7 @@
         <f>(SUM(I67:I70)/G46)</f>
         <v>3.0545043986490852E-2</v>
       </c>
-      <c r="J46" s="359">
+      <c r="J46" s="335">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K46" s="156">
@@ -46790,7 +46776,7 @@
       <c r="A47" s="112" t="s">
         <v>522</v>
       </c>
-      <c r="B47" s="377">
+      <c r="B47" s="353">
         <v>0</v>
       </c>
       <c r="C47" s="50"/>
@@ -46808,7 +46794,7 @@
         <f>G45/G47</f>
         <v>0.77061480572638041</v>
       </c>
-      <c r="J47" s="359">
+      <c r="J47" s="335">
         <v>6</v>
       </c>
       <c r="K47" s="156">
@@ -46823,7 +46809,7 @@
       <c r="A48" s="226" t="s">
         <v>570</v>
       </c>
-      <c r="B48" s="378" t="s">
+      <c r="B48" s="354" t="s">
         <v>163</v>
       </c>
       <c r="C48" s="50"/>
@@ -46841,7 +46827,7 @@
         <f>G45/G48</f>
         <v>0.26366151365081053</v>
       </c>
-      <c r="J48" s="359">
+      <c r="J48" s="335">
         <v>0.5</v>
       </c>
       <c r="K48" s="156">
@@ -46856,7 +46842,7 @@
       <c r="A49" s="226" t="s">
         <v>826</v>
       </c>
-      <c r="B49" s="371" t="s">
+      <c r="B49" s="347" t="s">
         <v>513</v>
       </c>
       <c r="C49" s="50"/>
@@ -46873,7 +46859,7 @@
         <f>G45/G49</f>
         <v>6.7428795501058287</v>
       </c>
-      <c r="J49" s="359">
+      <c r="J49" s="335">
         <v>500</v>
       </c>
       <c r="K49" s="156">
@@ -46888,7 +46874,7 @@
       <c r="A50" s="226" t="s">
         <v>827</v>
       </c>
-      <c r="B50" s="371" t="s">
+      <c r="B50" s="347" t="s">
         <v>513</v>
       </c>
       <c r="C50" s="50"/>
@@ -46906,7 +46892,7 @@
         <f>G45/G50</f>
         <v>70.947806714076478</v>
       </c>
-      <c r="J50" s="359">
+      <c r="J50" s="335">
         <v>130</v>
       </c>
       <c r="K50" s="156">
@@ -46935,7 +46921,7 @@
         <f>G45/G51</f>
         <v>107.93301762010903</v>
       </c>
-      <c r="J51" s="359">
+      <c r="J51" s="335">
         <v>500</v>
       </c>
       <c r="K51" s="156">
@@ -46963,7 +46949,7 @@
         <f>G45/G52</f>
         <v>38322.8944259899</v>
       </c>
-      <c r="J52" s="359">
+      <c r="J52" s="335">
         <v>50000</v>
       </c>
       <c r="K52" s="156">
@@ -46996,7 +46982,7 @@
         <f>G45/G53</f>
         <v>108.23785990865916</v>
       </c>
-      <c r="J53" s="359">
+      <c r="J53" s="335">
         <v>-1000</v>
       </c>
       <c r="K53" s="156">
@@ -47011,7 +46997,7 @@
       <c r="A54" s="197" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="379">
+      <c r="B54" s="355">
         <v>0</v>
       </c>
       <c r="C54" s="44"/>
@@ -47031,7 +47017,7 @@
         <f>G54/C16</f>
         <v>688.11706155463764</v>
       </c>
-      <c r="J54" s="359">
+      <c r="J54" s="335">
         <v>800</v>
       </c>
       <c r="K54" s="156">
@@ -47046,7 +47032,7 @@
       <c r="A55" s="198" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="380">
+      <c r="B55" s="356">
         <v>0</v>
       </c>
       <c r="C55" s="44"/>
@@ -47062,7 +47048,7 @@
       <c r="A56" s="198" t="s">
         <v>203</v>
       </c>
-      <c r="B56" s="380">
+      <c r="B56" s="356">
         <v>0.1</v>
       </c>
       <c r="C56" s="50"/>
@@ -47072,7 +47058,7 @@
       <c r="A57" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="B57" s="381">
+      <c r="B57" s="357">
         <v>5</v>
       </c>
       <c r="C57" s="50"/>
@@ -47082,7 +47068,7 @@
       <c r="A58" s="198" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="381" t="s">
+      <c r="B58" s="357" t="s">
         <v>211</v>
       </c>
       <c r="C58" s="50"/>
@@ -47788,12 +47774,12 @@
       <c r="B75" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="382">
+      <c r="C75" s="358">
         <v>1</v>
       </c>
       <c r="D75" s="176"/>
       <c r="E75" s="176"/>
-      <c r="F75" s="383">
+      <c r="F75" s="359">
         <v>50</v>
       </c>
       <c r="G75" s="164">
@@ -47868,12 +47854,12 @@
       <c r="B76" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="382">
+      <c r="C76" s="358">
         <v>1.1000000000000001</v>
       </c>
       <c r="D76" s="176"/>
       <c r="E76" s="176"/>
-      <c r="F76" s="383">
+      <c r="F76" s="359">
         <v>600</v>
       </c>
       <c r="G76" s="166">
@@ -47948,12 +47934,12 @@
       <c r="B77" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="382">
+      <c r="C77" s="358">
         <v>1.1499999999999999</v>
       </c>
       <c r="D77" s="176"/>
       <c r="E77" s="176"/>
-      <c r="F77" s="383">
+      <c r="F77" s="359">
         <v>200</v>
       </c>
       <c r="G77" s="166">
@@ -48028,12 +48014,12 @@
       <c r="B78" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="382">
+      <c r="C78" s="358">
         <v>1</v>
       </c>
       <c r="D78" s="176"/>
       <c r="E78" s="176"/>
-      <c r="F78" s="383">
+      <c r="F78" s="359">
         <v>0</v>
       </c>
       <c r="G78" s="166">
@@ -48117,47 +48103,47 @@
       <c r="G79" s="206" t="s">
         <v>101</v>
       </c>
-      <c r="H79" s="384">
-        <v>0</v>
-      </c>
-      <c r="I79" s="385"/>
-      <c r="J79" s="386" t="s">
+      <c r="H79" s="360">
+        <v>0</v>
+      </c>
+      <c r="I79" s="361"/>
+      <c r="J79" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="K79" s="386" t="s">
+      <c r="K79" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="L79" s="386" t="s">
+      <c r="L79" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="M79" s="386" t="s">
+      <c r="M79" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="N79" s="386" t="s">
+      <c r="N79" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="O79" s="386" t="s">
+      <c r="O79" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="P79" s="386" t="s">
+      <c r="P79" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="Q79" s="386" t="s">
+      <c r="Q79" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="R79" s="386" t="s">
+      <c r="R79" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="S79" s="386" t="s">
+      <c r="S79" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="T79" s="386" t="s">
+      <c r="T79" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="U79" s="386" t="s">
+      <c r="U79" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="V79" s="386" t="s">
+      <c r="V79" s="362" t="s">
         <v>101</v>
       </c>
     </row>
@@ -49066,10 +49052,10 @@
       <c r="C94" s="176"/>
       <c r="D94" s="176"/>
       <c r="E94" s="176"/>
-      <c r="F94" s="387">
-        <v>0</v>
-      </c>
-      <c r="G94" s="388">
+      <c r="F94" s="363">
+        <v>0</v>
+      </c>
+      <c r="G94" s="364">
         <f>I94/12</f>
         <v>0</v>
       </c>
@@ -49302,10 +49288,10 @@
       <c r="C97" s="176"/>
       <c r="D97" s="176"/>
       <c r="E97" s="176"/>
-      <c r="F97" s="389">
-        <v>0</v>
-      </c>
-      <c r="G97" s="390">
+      <c r="F97" s="365">
+        <v>0</v>
+      </c>
+      <c r="G97" s="366">
         <v>1000</v>
       </c>
       <c r="H97" s="172">
@@ -49379,10 +49365,10 @@
       <c r="C98" s="176"/>
       <c r="D98" s="176"/>
       <c r="E98" s="176"/>
-      <c r="F98" s="391">
+      <c r="F98" s="367">
         <v>800</v>
       </c>
-      <c r="G98" s="390">
+      <c r="G98" s="366">
         <v>1200</v>
       </c>
       <c r="H98" s="36">
@@ -50193,7 +50179,7 @@
       <c r="A113" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="B113" s="392">
+      <c r="B113" s="368">
         <v>1500</v>
       </c>
       <c r="C113" s="33">
@@ -50275,7 +50261,7 @@
       <c r="A114" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="B114" s="392">
+      <c r="B114" s="368">
         <v>1500</v>
       </c>
       <c r="C114" s="33">
@@ -50518,7 +50504,7 @@
       <c r="A118" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="B118" s="392">
+      <c r="B118" s="368">
         <v>2025</v>
       </c>
       <c r="C118" s="33">
@@ -50598,7 +50584,7 @@
       <c r="A119" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="B119" s="392">
+      <c r="B119" s="368">
         <v>1560</v>
       </c>
       <c r="C119" s="33">
@@ -50678,7 +50664,7 @@
       <c r="A120" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="B120" s="392">
+      <c r="B120" s="368">
         <v>2025</v>
       </c>
       <c r="C120" s="33">
@@ -50758,7 +50744,7 @@
       <c r="A121" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="B121" s="392">
+      <c r="B121" s="368">
         <v>2025</v>
       </c>
       <c r="C121" s="33">
@@ -50838,7 +50824,7 @@
       <c r="A122" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="B122" s="392">
+      <c r="B122" s="368">
         <v>1560</v>
       </c>
       <c r="C122" s="33">
@@ -50918,7 +50904,7 @@
       <c r="A123" s="177" t="s">
         <v>501</v>
       </c>
-      <c r="B123" s="392">
+      <c r="B123" s="368">
         <v>2025</v>
       </c>
       <c r="C123" s="33">
@@ -50998,7 +50984,7 @@
       <c r="A124" s="177" t="s">
         <v>500</v>
       </c>
-      <c r="B124" s="392">
+      <c r="B124" s="368">
         <v>624</v>
       </c>
       <c r="C124" s="33">
@@ -51239,10 +51225,10 @@
       <c r="C128" s="176"/>
       <c r="D128" s="176"/>
       <c r="E128" s="176"/>
-      <c r="F128" s="382">
-        <v>0</v>
-      </c>
-      <c r="G128" s="393">
+      <c r="F128" s="358">
+        <v>0</v>
+      </c>
+      <c r="G128" s="369">
         <v>0</v>
       </c>
       <c r="H128" s="176">
@@ -51308,10 +51294,10 @@
       <c r="C129" s="176"/>
       <c r="D129" s="176"/>
       <c r="E129" s="176"/>
-      <c r="F129" s="382">
-        <v>0</v>
-      </c>
-      <c r="G129" s="393">
+      <c r="F129" s="358">
+        <v>0</v>
+      </c>
+      <c r="G129" s="369">
         <v>1</v>
       </c>
       <c r="H129" s="176">
@@ -51377,10 +51363,10 @@
       <c r="C130" s="176"/>
       <c r="D130" s="176"/>
       <c r="E130" s="176"/>
-      <c r="F130" s="382">
+      <c r="F130" s="358">
         <v>0.5</v>
       </c>
-      <c r="G130" s="393">
+      <c r="G130" s="369">
         <v>0.5</v>
       </c>
       <c r="H130" s="176">
@@ -51446,10 +51432,10 @@
       <c r="C131" s="176"/>
       <c r="D131" s="176"/>
       <c r="E131" s="176"/>
-      <c r="F131" s="382">
+      <c r="F131" s="358">
         <v>1</v>
       </c>
-      <c r="G131" s="393">
+      <c r="G131" s="369">
         <v>1</v>
       </c>
       <c r="H131" s="176">
@@ -51515,10 +51501,10 @@
       <c r="C132" s="176"/>
       <c r="D132" s="176"/>
       <c r="E132" s="176"/>
-      <c r="F132" s="382">
-        <v>0</v>
-      </c>
-      <c r="G132" s="393">
+      <c r="F132" s="358">
+        <v>0</v>
+      </c>
+      <c r="G132" s="369">
         <v>0</v>
       </c>
       <c r="H132" s="176">
@@ -51580,10 +51566,10 @@
       <c r="A133" s="177" t="s">
         <v>501</v>
       </c>
-      <c r="F133" s="382">
+      <c r="F133" s="358">
         <v>1</v>
       </c>
-      <c r="G133" s="393">
+      <c r="G133" s="369">
         <v>1</v>
       </c>
       <c r="H133" s="181">
@@ -51647,10 +51633,10 @@
       <c r="C134" s="176"/>
       <c r="D134" s="176"/>
       <c r="E134" s="176"/>
-      <c r="F134" s="382">
-        <v>0</v>
-      </c>
-      <c r="G134" s="393">
+      <c r="F134" s="358">
+        <v>0</v>
+      </c>
+      <c r="G134" s="369">
         <v>0</v>
       </c>
       <c r="H134" s="176">
@@ -51716,10 +51702,10 @@
       <c r="C135" s="176"/>
       <c r="D135" s="176"/>
       <c r="E135" s="176"/>
-      <c r="F135" s="382">
+      <c r="F135" s="358">
         <v>1</v>
       </c>
-      <c r="G135" s="393">
+      <c r="G135" s="369">
         <v>1</v>
       </c>
       <c r="H135" s="176">
@@ -51785,10 +51771,10 @@
       <c r="C136" s="176"/>
       <c r="D136" s="176"/>
       <c r="E136" s="176"/>
-      <c r="F136" s="382">
-        <v>0</v>
-      </c>
-      <c r="G136" s="393">
+      <c r="F136" s="358">
+        <v>0</v>
+      </c>
+      <c r="G136" s="369">
         <v>0.5</v>
       </c>
       <c r="H136" s="176">
@@ -51919,11 +51905,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A7:H7"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="F33:F37"/>
@@ -51934,6 +51915,11 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F28:F29"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="L15">
@@ -52075,34 +52061,34 @@
       <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="341" t="s">
+      <c r="A2" s="375" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="341"/>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="340"/>
-      <c r="K2" s="340"/>
+      <c r="B2" s="375"/>
+      <c r="C2" s="374"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="374"/>
+      <c r="F2" s="374"/>
+      <c r="G2" s="374"/>
+      <c r="H2" s="374"/>
+      <c r="I2" s="374"/>
+      <c r="J2" s="374"/>
+      <c r="K2" s="374"/>
     </row>
     <row r="3" spans="1:11" s="91" customFormat="1">
-      <c r="A3" s="394" t="s">
+      <c r="A3" s="391" t="s">
         <v>844</v>
       </c>
-      <c r="B3" s="394"/>
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
-      <c r="F3" s="395"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="395"/>
-      <c r="I3" s="395"/>
-      <c r="J3" s="395"/>
-      <c r="K3" s="395"/>
+      <c r="B3" s="391"/>
+      <c r="C3" s="392"/>
+      <c r="D3" s="392"/>
+      <c r="E3" s="392"/>
+      <c r="F3" s="392"/>
+      <c r="G3" s="392"/>
+      <c r="H3" s="392"/>
+      <c r="I3" s="392"/>
+      <c r="J3" s="392"/>
+      <c r="K3" s="392"/>
     </row>
     <row r="4" spans="1:11" s="91" customFormat="1">
       <c r="A4" s="87" t="s">
@@ -52120,19 +52106,19 @@
       <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="344" t="s">
+      <c r="A5" s="376" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="344"/>
-      <c r="C5" s="340"/>
-      <c r="D5" s="340"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
-      <c r="G5" s="340"/>
-      <c r="H5" s="340"/>
-      <c r="I5" s="340"/>
-      <c r="J5" s="340"/>
-      <c r="K5" s="340"/>
+      <c r="B5" s="376"/>
+      <c r="C5" s="374"/>
+      <c r="D5" s="374"/>
+      <c r="E5" s="374"/>
+      <c r="F5" s="374"/>
+      <c r="G5" s="374"/>
+      <c r="H5" s="374"/>
+      <c r="I5" s="374"/>
+      <c r="J5" s="374"/>
+      <c r="K5" s="374"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="89" t="s">
@@ -52241,12 +52227,12 @@
       <c r="C14" s="93"/>
       <c r="D14" s="93"/>
       <c r="E14" s="93"/>
-      <c r="F14" s="345" t="s">
+      <c r="F14" s="390" t="s">
         <v>255</v>
       </c>
-      <c r="G14" s="345"/>
-      <c r="H14" s="345"/>
-      <c r="I14" s="345"/>
+      <c r="G14" s="390"/>
+      <c r="H14" s="390"/>
+      <c r="I14" s="390"/>
       <c r="J14" s="91"/>
       <c r="K14" s="91"/>
     </row>
@@ -52290,11 +52276,11 @@
       <c r="B16" s="309">
         <v>0</v>
       </c>
-      <c r="C16" s="396">
+      <c r="C16" s="370">
         <f>B16*$B$12</f>
         <v>0</v>
       </c>
-      <c r="D16" s="397">
+      <c r="D16" s="371">
         <f t="shared" ref="D16:D21" si="0">(B16*$B$13)-C16</f>
         <v>0</v>
       </c>
@@ -52326,11 +52312,11 @@
       <c r="B17" s="309">
         <v>0</v>
       </c>
-      <c r="C17" s="396">
+      <c r="C17" s="370">
         <f>B17*$B$12</f>
         <v>0</v>
       </c>
-      <c r="D17" s="397">
+      <c r="D17" s="371">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -52360,11 +52346,11 @@
       <c r="B18" s="309">
         <v>25</v>
       </c>
-      <c r="C18" s="396">
+      <c r="C18" s="370">
         <f>B18*$B$12</f>
         <v>5500</v>
       </c>
-      <c r="D18" s="397">
+      <c r="D18" s="371">
         <f>(B18*$B$13)-C18</f>
         <v>5500</v>
       </c>
@@ -52394,11 +52380,11 @@
       <c r="B19" s="309">
         <v>0</v>
       </c>
-      <c r="C19" s="396">
+      <c r="C19" s="370">
         <f>B19*$B$12</f>
         <v>0</v>
       </c>
-      <c r="D19" s="397">
+      <c r="D19" s="371">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -52422,11 +52408,11 @@
         <f>(10*0.81)/0.092903</f>
         <v>87.187711914577591</v>
       </c>
-      <c r="C20" s="396">
+      <c r="C20" s="370">
         <f>B20*$B$12</f>
         <v>19181.296621207071</v>
       </c>
-      <c r="D20" s="397">
+      <c r="D20" s="371">
         <f t="shared" si="0"/>
         <v>19181.296621207071</v>
       </c>
@@ -52450,11 +52436,11 @@
         <f>SUM(B16:B20)</f>
         <v>112.18771191457759</v>
       </c>
-      <c r="C21" s="396">
+      <c r="C21" s="370">
         <f>SUM(C16:C20)</f>
         <v>24681.296621207071</v>
       </c>
-      <c r="D21" s="397">
+      <c r="D21" s="371">
         <f t="shared" si="0"/>
         <v>24681.296621207071</v>
       </c>
@@ -52515,11 +52501,11 @@
       <c r="B24" s="309">
         <v>0</v>
       </c>
-      <c r="C24" s="396">
+      <c r="C24" s="370">
         <f>B24*$B$12</f>
         <v>0</v>
       </c>
-      <c r="D24" s="397">
+      <c r="D24" s="371">
         <f>(B24*$B$13)-C24</f>
         <v>0</v>
       </c>
@@ -52547,11 +52533,11 @@
       <c r="B25" s="309">
         <v>150</v>
       </c>
-      <c r="C25" s="396">
+      <c r="C25" s="370">
         <f>B25*B12</f>
         <v>33000</v>
       </c>
-      <c r="D25" s="397">
+      <c r="D25" s="371">
         <f>(B25*$B$13)-C25</f>
         <v>33000</v>
       </c>
@@ -52585,11 +52571,11 @@
       <c r="B26" s="309">
         <v>150</v>
       </c>
-      <c r="C26" s="396">
+      <c r="C26" s="370">
         <f t="shared" ref="C26:C33" si="4">B26*$B$12</f>
         <v>33000</v>
       </c>
-      <c r="D26" s="397">
+      <c r="D26" s="371">
         <f>(B26*$B$13)-C26</f>
         <v>33000</v>
       </c>
@@ -52617,11 +52603,11 @@
       <c r="B27" s="309">
         <v>20</v>
       </c>
-      <c r="C27" s="396">
+      <c r="C27" s="370">
         <f t="shared" si="4"/>
         <v>4400</v>
       </c>
-      <c r="D27" s="397">
+      <c r="D27" s="371">
         <f t="shared" ref="D27:D33" si="6">(B27*$B$13)-C27</f>
         <v>4400</v>
       </c>
@@ -52651,11 +52637,11 @@
       <c r="B28" s="309">
         <v>20</v>
       </c>
-      <c r="C28" s="396">
+      <c r="C28" s="370">
         <f t="shared" si="4"/>
         <v>4400</v>
       </c>
-      <c r="D28" s="397">
+      <c r="D28" s="371">
         <f t="shared" si="6"/>
         <v>4400</v>
       </c>
@@ -52684,11 +52670,11 @@
         <f>(1.5*0.81)/0.092903</f>
         <v>13.078156787186636</v>
       </c>
-      <c r="C29" s="396">
+      <c r="C29" s="370">
         <f t="shared" si="4"/>
         <v>2877.1944931810599</v>
       </c>
-      <c r="D29" s="397">
+      <c r="D29" s="371">
         <f t="shared" si="6"/>
         <v>2877.1944931810599</v>
       </c>
@@ -52718,11 +52704,11 @@
       <c r="B30" s="322">
         <v>20</v>
       </c>
-      <c r="C30" s="396">
+      <c r="C30" s="370">
         <f t="shared" si="4"/>
         <v>4400</v>
       </c>
-      <c r="D30" s="397">
+      <c r="D30" s="371">
         <f t="shared" si="6"/>
         <v>4400</v>
       </c>
@@ -52753,11 +52739,11 @@
         <f>2.5*0.81/0.092903</f>
         <v>21.796927978644398</v>
       </c>
-      <c r="C31" s="396">
+      <c r="C31" s="370">
         <f t="shared" si="4"/>
         <v>4795.3241553017679</v>
       </c>
-      <c r="D31" s="397">
+      <c r="D31" s="371">
         <f t="shared" si="6"/>
         <v>4795.3241553017679</v>
       </c>
@@ -52787,11 +52773,11 @@
       <c r="B32" s="309">
         <v>0</v>
       </c>
-      <c r="C32" s="396">
+      <c r="C32" s="370">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D32" s="397">
+      <c r="D32" s="371">
         <f>(B32*$B$13)-C32</f>
         <v>0</v>
       </c>
@@ -52821,11 +52807,11 @@
       <c r="B33" s="309">
         <v>0</v>
       </c>
-      <c r="C33" s="396">
+      <c r="C33" s="370">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D33" s="397">
+      <c r="D33" s="371">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -52856,11 +52842,11 @@
         <f>(28.41*0.81)/0.092903</f>
         <v>247.70028954931487</v>
       </c>
-      <c r="C34" s="396">
+      <c r="C34" s="370">
         <f>SUM(C24:C33)</f>
         <v>86872.51864848283</v>
       </c>
-      <c r="D34" s="397">
+      <c r="D34" s="371">
         <f>SUM(D24:D33)</f>
         <v>86872.51864848283</v>
       </c>
@@ -53875,13 +53861,13 @@
     </row>
     <row r="21" spans="1:13" s="139" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="126"/>
-      <c r="B21" s="346" t="s">
+      <c r="B21" s="393" t="s">
         <v>459</v>
       </c>
-      <c r="C21" s="346"/>
-      <c r="D21" s="346"/>
-      <c r="E21" s="346"/>
-      <c r="F21" s="346"/>
+      <c r="C21" s="393"/>
+      <c r="D21" s="393"/>
+      <c r="E21" s="393"/>
+      <c r="F21" s="393"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
@@ -54081,13 +54067,13 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1">
       <c r="A33" s="126"/>
-      <c r="B33" s="346" t="s">
+      <c r="B33" s="393" t="s">
         <v>459</v>
       </c>
-      <c r="C33" s="346"/>
-      <c r="D33" s="346"/>
-      <c r="E33" s="346"/>
-      <c r="F33" s="346"/>
+      <c r="C33" s="393"/>
+      <c r="D33" s="393"/>
+      <c r="E33" s="393"/>
+      <c r="F33" s="393"/>
       <c r="H33" s="51"/>
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
@@ -56392,14 +56378,14 @@
       <c r="G6" s="128"/>
       <c r="H6" s="128"/>
       <c r="I6" s="128"/>
-      <c r="J6" s="347" t="s">
+      <c r="J6" s="394" t="s">
         <v>445</v>
       </c>
-      <c r="K6" s="347"/>
-      <c r="L6" s="347"/>
-      <c r="M6" s="347"/>
-      <c r="N6" s="347"/>
-      <c r="O6" s="347"/>
+      <c r="K6" s="394"/>
+      <c r="L6" s="394"/>
+      <c r="M6" s="394"/>
+      <c r="N6" s="394"/>
+      <c r="O6" s="394"/>
       <c r="P6" s="132"/>
       <c r="Q6" s="132"/>
     </row>
@@ -65207,12 +65193,12 @@
       <c r="C19" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="348" t="s">
+      <c r="G19" s="395" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="348"/>
-      <c r="I19" s="348"/>
-      <c r="J19" s="348"/>
+      <c r="H19" s="395"/>
+      <c r="I19" s="395"/>
+      <c r="J19" s="395"/>
       <c r="L19" s="28" t="s">
         <v>98</v>
       </c>
